--- a/SchedulingData/dynamic13/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_12.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>217.4</v>
+        <v>222.88</v>
       </c>
       <c r="D2" t="n">
-        <v>286.7</v>
+        <v>269.44</v>
       </c>
       <c r="E2" t="n">
-        <v>12.46</v>
+        <v>12.196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>286.7</v>
+        <v>236.46</v>
       </c>
       <c r="D3" t="n">
-        <v>336.08</v>
+        <v>287.24</v>
       </c>
       <c r="E3" t="n">
-        <v>9.651999999999999</v>
+        <v>13.416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>247.72</v>
+        <v>269.44</v>
       </c>
       <c r="D4" t="n">
-        <v>322.52</v>
+        <v>310.04</v>
       </c>
       <c r="E4" t="n">
-        <v>11.908</v>
+        <v>9.776</v>
       </c>
     </row>
     <row r="5">
@@ -523,131 +523,131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>241.74</v>
+        <v>310.04</v>
       </c>
       <c r="D5" t="n">
-        <v>283.14</v>
+        <v>365.76</v>
       </c>
       <c r="E5" t="n">
-        <v>13.316</v>
+        <v>5.824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>241.22</v>
+        <v>205.46</v>
       </c>
       <c r="D6" t="n">
-        <v>303.12</v>
+        <v>249.76</v>
       </c>
       <c r="E6" t="n">
-        <v>12.348</v>
+        <v>15.024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>234.7</v>
+        <v>248.32</v>
       </c>
       <c r="D7" t="n">
-        <v>269.76</v>
+        <v>310.82</v>
       </c>
       <c r="E7" t="n">
-        <v>12.204</v>
+        <v>12.608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>303.12</v>
+        <v>310.82</v>
       </c>
       <c r="D8" t="n">
-        <v>349.28</v>
+        <v>378.62</v>
       </c>
       <c r="E8" t="n">
-        <v>8.372</v>
+        <v>7.448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>227</v>
+        <v>365.76</v>
       </c>
       <c r="D9" t="n">
-        <v>276.7</v>
+        <v>410.34</v>
       </c>
       <c r="E9" t="n">
-        <v>12.52</v>
+        <v>2.496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>276.7</v>
+        <v>209.28</v>
       </c>
       <c r="D10" t="n">
-        <v>336.72</v>
+        <v>254.46</v>
       </c>
       <c r="E10" t="n">
-        <v>9.608000000000001</v>
+        <v>15.184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>336.08</v>
+        <v>254.46</v>
       </c>
       <c r="D11" t="n">
-        <v>390.98</v>
+        <v>329.48</v>
       </c>
       <c r="E11" t="n">
-        <v>7.252</v>
+        <v>11.752</v>
       </c>
     </row>
     <row r="12">
@@ -656,112 +656,112 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>322.52</v>
+        <v>241.74</v>
       </c>
       <c r="D12" t="n">
-        <v>366.06</v>
+        <v>285.1</v>
       </c>
       <c r="E12" t="n">
-        <v>8.683999999999999</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>269.76</v>
+        <v>285.1</v>
       </c>
       <c r="D13" t="n">
-        <v>314.34</v>
+        <v>344.76</v>
       </c>
       <c r="E13" t="n">
-        <v>8.875999999999999</v>
+        <v>10.244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>283.14</v>
+        <v>249.76</v>
       </c>
       <c r="D14" t="n">
-        <v>352.36</v>
+        <v>286.12</v>
       </c>
       <c r="E14" t="n">
-        <v>10.984</v>
+        <v>12.528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>352.36</v>
+        <v>344.76</v>
       </c>
       <c r="D15" t="n">
-        <v>414.76</v>
+        <v>434.32</v>
       </c>
       <c r="E15" t="n">
-        <v>7.344</v>
+        <v>7.868</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>349.28</v>
+        <v>286.12</v>
       </c>
       <c r="D16" t="n">
-        <v>401.2</v>
+        <v>330.98</v>
       </c>
       <c r="E16" t="n">
-        <v>5.78</v>
+        <v>10.152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>401.2</v>
+        <v>434.32</v>
       </c>
       <c r="D17" t="n">
-        <v>455.06</v>
+        <v>466.42</v>
       </c>
       <c r="E17" t="n">
-        <v>1.524</v>
+        <v>5.788</v>
       </c>
     </row>
     <row r="18">
@@ -770,207 +770,207 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>455.06</v>
+        <v>287.24</v>
       </c>
       <c r="D18" t="n">
-        <v>528.91</v>
+        <v>350.78</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>10.192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>390.98</v>
+        <v>466.42</v>
       </c>
       <c r="D19" t="n">
-        <v>456.2</v>
+        <v>540.84</v>
       </c>
       <c r="E19" t="n">
-        <v>3.82</v>
+        <v>3.456</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>414.76</v>
+        <v>378.62</v>
       </c>
       <c r="D20" t="n">
-        <v>445.36</v>
+        <v>435.82</v>
       </c>
       <c r="E20" t="n">
-        <v>4.924</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>314.34</v>
+        <v>435.82</v>
       </c>
       <c r="D21" t="n">
-        <v>361.74</v>
+        <v>488.02</v>
       </c>
       <c r="E21" t="n">
-        <v>5.756</v>
+        <v>1.248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>336.72</v>
+        <v>488.02</v>
       </c>
       <c r="D22" t="n">
-        <v>376.24</v>
+        <v>567.22</v>
       </c>
       <c r="E22" t="n">
-        <v>7.276</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>366.06</v>
+        <v>329.48</v>
       </c>
       <c r="D23" t="n">
-        <v>418.66</v>
+        <v>368.86</v>
       </c>
       <c r="E23" t="n">
-        <v>6.044</v>
+        <v>8.944000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>361.74</v>
+        <v>410.34</v>
       </c>
       <c r="D24" t="n">
-        <v>436.6</v>
+        <v>506.85</v>
       </c>
       <c r="E24" t="n">
-        <v>3.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>456.2</v>
+        <v>506.85</v>
       </c>
       <c r="D25" t="n">
-        <v>494.4</v>
+        <v>587.51</v>
       </c>
       <c r="E25" t="n">
-        <v>0.64</v>
+        <v>26.584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>494.4</v>
+        <v>330.98</v>
       </c>
       <c r="D26" t="n">
-        <v>560.12</v>
+        <v>379.68</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>6.412</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>436.6</v>
+        <v>540.84</v>
       </c>
       <c r="D27" t="n">
-        <v>506.84</v>
+        <v>591.36</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>506.84</v>
+        <v>591.36</v>
       </c>
       <c r="D28" t="n">
-        <v>579.22</v>
+        <v>676.87</v>
       </c>
       <c r="E28" t="n">
-        <v>26.412</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>445.36</v>
+        <v>587.51</v>
       </c>
       <c r="D29" t="n">
-        <v>501.04</v>
+        <v>646.49</v>
       </c>
       <c r="E29" t="n">
-        <v>1.956</v>
+        <v>23.776</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>501.04</v>
+        <v>350.78</v>
       </c>
       <c r="D30" t="n">
-        <v>578.9299999999999</v>
+        <v>423.32</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>418.66</v>
+        <v>368.86</v>
       </c>
       <c r="D31" t="n">
-        <v>465.66</v>
+        <v>403.48</v>
       </c>
       <c r="E31" t="n">
-        <v>2.964</v>
+        <v>6.612</v>
       </c>
     </row>
     <row r="32">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>560.12</v>
+        <v>567.22</v>
       </c>
       <c r="D32" t="n">
-        <v>600.78</v>
+        <v>619.9400000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>27.624</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>528.91</v>
+        <v>423.32</v>
       </c>
       <c r="D33" t="n">
-        <v>587.87</v>
+        <v>480.62</v>
       </c>
       <c r="E33" t="n">
-        <v>27.264</v>
+        <v>3.408</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>376.24</v>
+        <v>619.9400000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>423.94</v>
+        <v>669.22</v>
       </c>
       <c r="E34" t="n">
-        <v>5.116</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="35">
@@ -1093,93 +1093,93 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>578.9299999999999</v>
+        <v>646.49</v>
       </c>
       <c r="D35" t="n">
-        <v>638.53</v>
+        <v>679.39</v>
       </c>
       <c r="E35" t="n">
-        <v>26.7</v>
+        <v>21.616</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>423.94</v>
+        <v>669.22</v>
       </c>
       <c r="D36" t="n">
-        <v>480</v>
+        <v>707.42</v>
       </c>
       <c r="E36" t="n">
-        <v>2.62</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>465.66</v>
+        <v>403.48</v>
       </c>
       <c r="D37" t="n">
-        <v>506.08</v>
+        <v>480.88</v>
       </c>
       <c r="E37" t="n">
-        <v>0.052</v>
+        <v>2.972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>506.08</v>
+        <v>379.68</v>
       </c>
       <c r="D38" t="n">
-        <v>592.58</v>
+        <v>424.48</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>3.552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>587.87</v>
+        <v>424.48</v>
       </c>
       <c r="D39" t="n">
-        <v>641.95</v>
+        <v>509.18</v>
       </c>
       <c r="E39" t="n">
-        <v>24.456</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1188,74 +1188,74 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>480</v>
+        <v>509.18</v>
       </c>
       <c r="D40" t="n">
-        <v>566.36</v>
+        <v>563.9400000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>566.36</v>
+        <v>480.62</v>
       </c>
       <c r="D41" t="n">
-        <v>611.34</v>
+        <v>528.9400000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>27.192</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>611.34</v>
+        <v>528.9400000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>656.24</v>
+        <v>610.41</v>
       </c>
       <c r="E42" t="n">
-        <v>24.332</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>592.58</v>
+        <v>610.41</v>
       </c>
       <c r="D43" t="n">
-        <v>664.6799999999999</v>
+        <v>671.33</v>
       </c>
       <c r="E43" t="n">
-        <v>27.92</v>
+        <v>27.088</v>
       </c>
     </row>
   </sheetData>
